--- a/Reference/setup_reactnative.xlsx
+++ b/Reference/setup_reactnative.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Install Nodejs</t>
   </si>
@@ -111,12 +111,27 @@
   <si>
     <t>Install VisualCode (IDE)</t>
   </si>
+  <si>
+    <t>If occur license error</t>
+  </si>
+  <si>
+    <t>run cmd as administrator</t>
+  </si>
+  <si>
+    <t>cd C:\Users\&lt;user&gt;\AppData\Local\Android\sdk\tools\bin</t>
+  </si>
+  <si>
+    <t>sdkmanager --licenses</t>
+  </si>
+  <si>
+    <t>press 'y' until finish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +152,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -208,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,6 +658,31 @@
         <v>21</v>
       </c>
     </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
